--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H2">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I2">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J2">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.3442741098935</v>
+        <v>4.344454</v>
       </c>
       <c r="N2">
-        <v>4.3442741098935</v>
+        <v>8.688908</v>
       </c>
       <c r="O2">
-        <v>0.07459182210593297</v>
+        <v>0.07166328453363975</v>
       </c>
       <c r="P2">
-        <v>0.07459182210593297</v>
+        <v>0.05740743684517152</v>
       </c>
       <c r="Q2">
-        <v>3.920567884769048</v>
+        <v>3.973796045855</v>
       </c>
       <c r="R2">
-        <v>3.920567884769048</v>
+        <v>15.89518418342</v>
       </c>
       <c r="S2">
-        <v>0.03401865004722546</v>
+        <v>0.02754845512546202</v>
       </c>
       <c r="T2">
-        <v>0.03401865004722546</v>
+        <v>0.01796264719487751</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H3">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I3">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J3">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.9104196133373</v>
+        <v>24.18506433333333</v>
       </c>
       <c r="N3">
-        <v>22.9104196133373</v>
+        <v>72.555193</v>
       </c>
       <c r="O3">
-        <v>0.3933752569338282</v>
+        <v>0.3989410744788757</v>
       </c>
       <c r="P3">
-        <v>0.3933752569338282</v>
+        <v>0.4793706711978917</v>
       </c>
       <c r="Q3">
-        <v>20.67591802231723</v>
+        <v>22.12165510707417</v>
       </c>
       <c r="R3">
-        <v>20.67591802231723</v>
+        <v>132.729930642445</v>
       </c>
       <c r="S3">
-        <v>0.179404321077778</v>
+        <v>0.1533590088635408</v>
       </c>
       <c r="T3">
-        <v>0.179404321077778</v>
+        <v>0.1499939156928864</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H4">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I4">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J4">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.743134322622252</v>
+        <v>0.1434473333333333</v>
       </c>
       <c r="N4">
-        <v>0.743134322622252</v>
+        <v>0.430342</v>
       </c>
       <c r="O4">
-        <v>0.01275972505225066</v>
+        <v>0.002366213812888463</v>
       </c>
       <c r="P4">
-        <v>0.01275972505225066</v>
+        <v>0.002843260762667162</v>
       </c>
       <c r="Q4">
-        <v>0.6706548633078374</v>
+        <v>0.1312087654716667</v>
       </c>
       <c r="R4">
-        <v>0.6706548633078374</v>
+        <v>0.78725259283</v>
       </c>
       <c r="S4">
-        <v>0.00581925215119266</v>
+        <v>0.0009096085319813549</v>
       </c>
       <c r="T4">
-        <v>0.00581925215119266</v>
+        <v>0.000889649368958444</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H5">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I5">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J5">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.30518011884588</v>
+        <v>1.071697333333334</v>
       </c>
       <c r="N5">
-        <v>4.30518011884588</v>
+        <v>3.215092</v>
       </c>
       <c r="O5">
-        <v>0.07392057255954868</v>
+        <v>0.01767802143436429</v>
       </c>
       <c r="P5">
-        <v>0.07392057255954868</v>
+        <v>0.0212420468649704</v>
       </c>
       <c r="Q5">
-        <v>3.885286813199532</v>
+        <v>0.9802627960966669</v>
       </c>
       <c r="R5">
-        <v>3.885286813199532</v>
+        <v>5.881576776580001</v>
       </c>
       <c r="S5">
-        <v>0.03371251724649595</v>
+        <v>0.006795699964923245</v>
       </c>
       <c r="T5">
-        <v>0.03371251724649595</v>
+        <v>0.006646584737123827</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H6">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I6">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J6">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.9376137592956</v>
+        <v>4.708586333333334</v>
       </c>
       <c r="N6">
-        <v>25.9376137592956</v>
+        <v>14.125759</v>
       </c>
       <c r="O6">
-        <v>0.4453526233484394</v>
+        <v>0.07766977441972553</v>
       </c>
       <c r="P6">
-        <v>0.4453526233484394</v>
+        <v>0.09332859982895587</v>
       </c>
       <c r="Q6">
-        <v>23.40786353251799</v>
+        <v>4.306861518839168</v>
       </c>
       <c r="R6">
-        <v>23.40786353251799</v>
+        <v>25.841169113035</v>
       </c>
       <c r="S6">
-        <v>0.2031093304007025</v>
+        <v>0.02985744107503431</v>
       </c>
       <c r="T6">
-        <v>0.2031093304007025</v>
+        <v>0.02920229162017433</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.217375830129206</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H7">
-        <v>0.217375830129206</v>
+        <v>1.829365</v>
       </c>
       <c r="I7">
-        <v>0.1098513390095775</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J7">
-        <v>0.1098513390095775</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.3442741098935</v>
+        <v>26.1699</v>
       </c>
       <c r="N7">
-        <v>4.3442741098935</v>
+        <v>52.3398</v>
       </c>
       <c r="O7">
-        <v>0.07459182210593297</v>
+        <v>0.4316816313205064</v>
       </c>
       <c r="P7">
-        <v>0.07459182210593297</v>
+        <v>0.3458079845003432</v>
       </c>
       <c r="Q7">
-        <v>0.944340190946917</v>
+        <v>23.93714955675</v>
       </c>
       <c r="R7">
-        <v>0.944340190946917</v>
+        <v>95.748598227</v>
       </c>
       <c r="S7">
-        <v>0.008194011537500939</v>
+        <v>0.1659449762358696</v>
       </c>
       <c r="T7">
-        <v>0.008194011537500939</v>
+        <v>0.1082024762663444</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H8">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I8">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J8">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.9104196133373</v>
+        <v>4.344454</v>
       </c>
       <c r="N8">
-        <v>22.9104196133373</v>
+        <v>8.688908</v>
       </c>
       <c r="O8">
-        <v>0.3933752569338282</v>
+        <v>0.07166328453363975</v>
       </c>
       <c r="P8">
-        <v>0.3933752569338282</v>
+        <v>0.05740743684517152</v>
       </c>
       <c r="Q8">
-        <v>4.980171482057639</v>
+        <v>0.9624370316793334</v>
       </c>
       <c r="R8">
-        <v>4.980171482057639</v>
+        <v>5.774622190076001</v>
       </c>
       <c r="S8">
-        <v>0.04321279870741761</v>
+        <v>0.006672122341547178</v>
       </c>
       <c r="T8">
-        <v>0.04321279870741761</v>
+        <v>0.006525718726319793</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H9">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I9">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J9">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.743134322622252</v>
+        <v>24.18506433333333</v>
       </c>
       <c r="N9">
-        <v>0.743134322622252</v>
+        <v>72.555193</v>
       </c>
       <c r="O9">
-        <v>0.01275972505225066</v>
+        <v>0.3989410744788757</v>
       </c>
       <c r="P9">
-        <v>0.01275972505225066</v>
+        <v>0.4793706711978917</v>
       </c>
       <c r="Q9">
-        <v>0.1615394402775172</v>
+        <v>5.357773733580112</v>
       </c>
       <c r="R9">
-        <v>0.1615394402775172</v>
+        <v>48.21996360222101</v>
       </c>
       <c r="S9">
-        <v>0.001401672882383786</v>
+        <v>0.03714292016216288</v>
       </c>
       <c r="T9">
-        <v>0.001401672882383786</v>
+        <v>0.05449186268882658</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H10">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I10">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J10">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>4.30518011884588</v>
+        <v>0.1434473333333333</v>
       </c>
       <c r="N10">
-        <v>4.30518011884588</v>
+        <v>0.430342</v>
       </c>
       <c r="O10">
-        <v>0.07392057255954868</v>
+        <v>0.002366213812888463</v>
       </c>
       <c r="P10">
-        <v>0.07392057255954868</v>
+        <v>0.002843260762667162</v>
       </c>
       <c r="Q10">
-        <v>0.9358421021898768</v>
+        <v>0.03177822246377778</v>
       </c>
       <c r="R10">
-        <v>0.9358421021898768</v>
+        <v>0.2860040021740001</v>
       </c>
       <c r="S10">
-        <v>0.008120273876021052</v>
+        <v>0.0002203034391821616</v>
       </c>
       <c r="T10">
-        <v>0.008120273876021052</v>
+        <v>0.0003232041181840011</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H11">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I11">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J11">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.9376137592956</v>
+        <v>1.071697333333334</v>
       </c>
       <c r="N11">
-        <v>25.9376137592956</v>
+        <v>3.215092</v>
       </c>
       <c r="O11">
-        <v>0.4453526233484394</v>
+        <v>0.01767802143436429</v>
       </c>
       <c r="P11">
-        <v>0.4453526233484394</v>
+        <v>0.0212420468649704</v>
       </c>
       <c r="Q11">
-        <v>5.638210322497597</v>
+        <v>0.2374156108804445</v>
       </c>
       <c r="R11">
-        <v>5.638210322497597</v>
+        <v>2.136740497924</v>
       </c>
       <c r="S11">
-        <v>0.04892258200625409</v>
+        <v>0.001645890535636899</v>
       </c>
       <c r="T11">
-        <v>0.04892258200625409</v>
+        <v>0.002414663162648397</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5195772889052001</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H12">
-        <v>0.5195772889052001</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I12">
-        <v>0.2625694902293266</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J12">
-        <v>0.2625694902293266</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.3442741098935</v>
+        <v>4.708586333333334</v>
       </c>
       <c r="N12">
-        <v>4.3442741098935</v>
+        <v>14.125759</v>
       </c>
       <c r="O12">
-        <v>0.07459182210593297</v>
+        <v>0.07766977441972553</v>
       </c>
       <c r="P12">
-        <v>0.07459182210593297</v>
+        <v>0.09332859982895587</v>
       </c>
       <c r="Q12">
-        <v>2.257186164279516</v>
+        <v>1.043104117124778</v>
       </c>
       <c r="R12">
-        <v>2.257186164279516</v>
+        <v>9.387937054123002</v>
       </c>
       <c r="S12">
-        <v>0.01958553670563143</v>
+        <v>0.007231349226332479</v>
       </c>
       <c r="T12">
-        <v>0.01958553670563143</v>
+        <v>0.0106090120910223</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5195772889052001</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H13">
-        <v>0.5195772889052001</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I13">
-        <v>0.2625694902293266</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J13">
-        <v>0.2625694902293266</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.9104196133373</v>
+        <v>26.1699</v>
       </c>
       <c r="N13">
-        <v>22.9104196133373</v>
+        <v>52.3398</v>
       </c>
       <c r="O13">
-        <v>0.3933752569338282</v>
+        <v>0.4316816313205064</v>
       </c>
       <c r="P13">
-        <v>0.3933752569338282</v>
+        <v>0.3458079845003432</v>
       </c>
       <c r="Q13">
-        <v>11.90373371037832</v>
+        <v>5.7974790101</v>
       </c>
       <c r="R13">
-        <v>11.90373371037832</v>
+        <v>34.7848740606</v>
       </c>
       <c r="S13">
-        <v>0.1032883406819456</v>
+        <v>0.04019118961003051</v>
       </c>
       <c r="T13">
-        <v>0.1032883406819456</v>
+        <v>0.03930929099396986</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H14">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I14">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J14">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.743134322622252</v>
+        <v>4.344454</v>
       </c>
       <c r="N14">
-        <v>0.743134322622252</v>
+        <v>8.688908</v>
       </c>
       <c r="O14">
-        <v>0.01275972505225066</v>
+        <v>0.07166328453363975</v>
       </c>
       <c r="P14">
-        <v>0.01275972505225066</v>
+        <v>0.05740743684517152</v>
       </c>
       <c r="Q14">
-        <v>0.386115716640472</v>
+        <v>0.5502323398566666</v>
       </c>
       <c r="R14">
-        <v>0.386115716640472</v>
+        <v>3.30139403914</v>
       </c>
       <c r="S14">
-        <v>0.003350314502435822</v>
+        <v>0.003814501486288018</v>
       </c>
       <c r="T14">
-        <v>0.003350314502435822</v>
+        <v>0.003730801461124315</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H15">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I15">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J15">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.30518011884588</v>
+        <v>24.18506433333333</v>
       </c>
       <c r="N15">
-        <v>4.30518011884588</v>
+        <v>72.555193</v>
       </c>
       <c r="O15">
-        <v>0.07392057255954868</v>
+        <v>0.3989410744788757</v>
       </c>
       <c r="P15">
-        <v>0.07392057255954868</v>
+        <v>0.4793706711978917</v>
       </c>
       <c r="Q15">
-        <v>2.236873814398509</v>
+        <v>3.063078706257222</v>
       </c>
       <c r="R15">
-        <v>2.236873814398509</v>
+        <v>27.567708356315</v>
       </c>
       <c r="S15">
-        <v>0.01940928705442064</v>
+        <v>0.02123488103349036</v>
       </c>
       <c r="T15">
-        <v>0.01940928705442064</v>
+        <v>0.03115339925990201</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H16">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I16">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J16">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>25.9376137592956</v>
+        <v>0.1434473333333333</v>
       </c>
       <c r="N16">
-        <v>25.9376137592956</v>
+        <v>0.430342</v>
       </c>
       <c r="O16">
-        <v>0.4453526233484394</v>
+        <v>0.002366213812888463</v>
       </c>
       <c r="P16">
-        <v>0.4453526233484394</v>
+        <v>0.002843260762667162</v>
       </c>
       <c r="Q16">
-        <v>13.47659503772502</v>
+        <v>0.01816784384555556</v>
       </c>
       <c r="R16">
-        <v>13.47659503772502</v>
+        <v>0.16351059461</v>
       </c>
       <c r="S16">
-        <v>0.116936011284893</v>
+        <v>0.0001259490988290019</v>
       </c>
       <c r="T16">
-        <v>0.116936011284893</v>
+        <v>0.0001847781749309764</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.339397203011457</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H17">
-        <v>0.339397203011457</v>
+        <v>0.379955</v>
       </c>
       <c r="I17">
-        <v>0.1715150998377012</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J17">
-        <v>0.1715150998377012</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.3442741098935</v>
+        <v>1.071697333333334</v>
       </c>
       <c r="N17">
-        <v>4.3442741098935</v>
+        <v>3.215092</v>
       </c>
       <c r="O17">
-        <v>0.07459182210593297</v>
+        <v>0.01767802143436429</v>
       </c>
       <c r="P17">
-        <v>0.07459182210593297</v>
+        <v>0.0212420468649704</v>
       </c>
       <c r="Q17">
-        <v>1.474434482012941</v>
+        <v>0.1357322534288889</v>
       </c>
       <c r="R17">
-        <v>1.474434482012941</v>
+        <v>1.22159028086</v>
       </c>
       <c r="S17">
-        <v>0.01279362381557514</v>
+        <v>0.0009409677420570931</v>
       </c>
       <c r="T17">
-        <v>0.01279362381557514</v>
+        <v>0.001380480715326839</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.339397203011457</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H18">
-        <v>0.339397203011457</v>
+        <v>0.379955</v>
       </c>
       <c r="I18">
-        <v>0.1715150998377012</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J18">
-        <v>0.1715150998377012</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>22.9104196133373</v>
+        <v>4.708586333333334</v>
       </c>
       <c r="N18">
-        <v>22.9104196133373</v>
+        <v>14.125759</v>
       </c>
       <c r="O18">
-        <v>0.3933752569338282</v>
+        <v>0.07766977441972553</v>
       </c>
       <c r="P18">
-        <v>0.3933752569338282</v>
+        <v>0.09332859982895587</v>
       </c>
       <c r="Q18">
-        <v>7.775732336585506</v>
+        <v>0.5963503067605556</v>
       </c>
       <c r="R18">
-        <v>7.775732336585506</v>
+        <v>5.367152760845</v>
       </c>
       <c r="S18">
-        <v>0.06746979646668692</v>
+        <v>0.004134215615314479</v>
       </c>
       <c r="T18">
-        <v>0.06746979646668692</v>
+        <v>0.006065250353288348</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.339397203011457</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H19">
-        <v>0.339397203011457</v>
+        <v>0.379955</v>
       </c>
       <c r="I19">
-        <v>0.1715150998377012</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J19">
-        <v>0.1715150998377012</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.743134322622252</v>
+        <v>26.1699</v>
       </c>
       <c r="N19">
-        <v>0.743134322622252</v>
+        <v>52.3398</v>
       </c>
       <c r="O19">
-        <v>0.01275972505225066</v>
+        <v>0.4316816313205064</v>
       </c>
       <c r="P19">
-        <v>0.01275972505225066</v>
+        <v>0.3458079845003432</v>
       </c>
       <c r="Q19">
-        <v>0.252217710559806</v>
+        <v>3.3144614515</v>
       </c>
       <c r="R19">
-        <v>0.252217710559806</v>
+        <v>19.886768709</v>
       </c>
       <c r="S19">
-        <v>0.002188485516238389</v>
+        <v>0.02297759912891443</v>
       </c>
       <c r="T19">
-        <v>0.002188485516238389</v>
+        <v>0.02247341119447397</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.339397203011457</v>
+        <v>0.1966663333333334</v>
       </c>
       <c r="H20">
-        <v>0.339397203011457</v>
+        <v>0.5899990000000001</v>
       </c>
       <c r="I20">
-        <v>0.1715150998377012</v>
+        <v>0.08265329866371805</v>
       </c>
       <c r="J20">
-        <v>0.1715150998377012</v>
+        <v>0.1009143885347377</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.30518011884588</v>
+        <v>4.344454</v>
       </c>
       <c r="N20">
-        <v>4.30518011884588</v>
+        <v>8.688908</v>
       </c>
       <c r="O20">
-        <v>0.07392057255954868</v>
+        <v>0.07166328453363975</v>
       </c>
       <c r="P20">
-        <v>0.07392057255954868</v>
+        <v>0.05740743684517152</v>
       </c>
       <c r="Q20">
-        <v>1.461166090796824</v>
+        <v>0.8544078385153334</v>
       </c>
       <c r="R20">
-        <v>1.461166090796824</v>
+        <v>5.126447031092</v>
       </c>
       <c r="S20">
-        <v>0.01267849438261103</v>
+        <v>0.005923206859781933</v>
       </c>
       <c r="T20">
-        <v>0.01267849438261103</v>
+        <v>0.005793236386577056</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,1053 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1966663333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.5899990000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.08265329866371805</v>
+      </c>
+      <c r="J21">
+        <v>0.1009143885347377</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>24.18506433333333</v>
+      </c>
+      <c r="N21">
+        <v>72.555193</v>
+      </c>
+      <c r="O21">
+        <v>0.3989410744788757</v>
+      </c>
+      <c r="P21">
+        <v>0.4793706711978917</v>
+      </c>
+      <c r="Q21">
+        <v>4.756387923867445</v>
+      </c>
+      <c r="R21">
+        <v>42.807491314807</v>
+      </c>
+      <c r="S21">
+        <v>0.0329737957781271</v>
+      </c>
+      <c r="T21">
+        <v>0.04837539816542204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1966663333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.5899990000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.08265329866371805</v>
+      </c>
+      <c r="J22">
+        <v>0.1009143885347377</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1434473333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.430342</v>
+      </c>
+      <c r="O22">
+        <v>0.002366213812888463</v>
+      </c>
+      <c r="P22">
+        <v>0.002843260762667162</v>
+      </c>
+      <c r="Q22">
+        <v>0.02821126107311112</v>
+      </c>
+      <c r="R22">
+        <v>0.253901349658</v>
+      </c>
+      <c r="S22">
+        <v>0.0001955753769788852</v>
+      </c>
+      <c r="T22">
+        <v>0.0002869259213093686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1966663333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.5899990000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.08265329866371805</v>
+      </c>
+      <c r="J23">
+        <v>0.1009143885347377</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.071697333333334</v>
+      </c>
+      <c r="N23">
+        <v>3.215092</v>
+      </c>
+      <c r="O23">
+        <v>0.01767802143436429</v>
+      </c>
+      <c r="P23">
+        <v>0.0212420468649704</v>
+      </c>
+      <c r="Q23">
+        <v>0.2107667849897778</v>
+      </c>
+      <c r="R23">
+        <v>1.896901064908</v>
+      </c>
+      <c r="S23">
+        <v>0.001461146785398121</v>
+      </c>
+      <c r="T23">
+        <v>0.00214362817060473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1966663333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.5899990000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.08265329866371805</v>
+      </c>
+      <c r="J24">
+        <v>0.1009143885347377</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.708586333333334</v>
+      </c>
+      <c r="N24">
+        <v>14.125759</v>
+      </c>
+      <c r="O24">
+        <v>0.07766977441972553</v>
+      </c>
+      <c r="P24">
+        <v>0.09332859982895587</v>
+      </c>
+      <c r="Q24">
+        <v>0.9260204093601113</v>
+      </c>
+      <c r="R24">
+        <v>8.334183684241001</v>
+      </c>
+      <c r="S24">
+        <v>0.006419663062257183</v>
+      </c>
+      <c r="T24">
+        <v>0.009418198584542308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1966663333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.5899990000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.08265329866371805</v>
+      </c>
+      <c r="J25">
+        <v>0.1009143885347377</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>26.1699</v>
+      </c>
+      <c r="N25">
+        <v>52.3398</v>
+      </c>
+      <c r="O25">
+        <v>0.4316816313205064</v>
+      </c>
+      <c r="P25">
+        <v>0.3458079845003432</v>
+      </c>
+      <c r="Q25">
+        <v>5.146738276700001</v>
+      </c>
+      <c r="R25">
+        <v>30.8804296602</v>
+      </c>
+      <c r="S25">
+        <v>0.03567991080117484</v>
+      </c>
+      <c r="T25">
+        <v>0.03489700130628219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.628561</v>
+      </c>
+      <c r="I26">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J26">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.344454</v>
+      </c>
+      <c r="N26">
+        <v>8.688908</v>
+      </c>
+      <c r="O26">
+        <v>0.07166328453363975</v>
+      </c>
+      <c r="P26">
+        <v>0.05740743684517152</v>
+      </c>
+      <c r="Q26">
+        <v>2.358402783564667</v>
+      </c>
+      <c r="R26">
+        <v>14.150416701388</v>
+      </c>
+      <c r="S26">
+        <v>0.01634969497706492</v>
+      </c>
+      <c r="T26">
+        <v>0.01599094039644188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.628561</v>
+      </c>
+      <c r="I27">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J27">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>24.18506433333333</v>
+      </c>
+      <c r="N27">
+        <v>72.555193</v>
+      </c>
+      <c r="O27">
+        <v>0.3989410744788757</v>
+      </c>
+      <c r="P27">
+        <v>0.4793706711978917</v>
+      </c>
+      <c r="Q27">
+        <v>13.12895085191922</v>
+      </c>
+      <c r="R27">
+        <v>118.160557667273</v>
+      </c>
+      <c r="S27">
+        <v>0.09101682854754405</v>
+      </c>
+      <c r="T27">
+        <v>0.1335295260020405</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.628561</v>
+      </c>
+      <c r="I28">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J28">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1434473333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.430342</v>
+      </c>
+      <c r="O28">
+        <v>0.002366213812888463</v>
+      </c>
+      <c r="P28">
+        <v>0.002843260762667162</v>
+      </c>
+      <c r="Q28">
+        <v>0.07787091087355556</v>
+      </c>
+      <c r="R28">
+        <v>0.700838197862</v>
+      </c>
+      <c r="S28">
+        <v>0.0005398423243227704</v>
+      </c>
+      <c r="T28">
+        <v>0.0007919951819130313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.339397203011457</v>
-      </c>
-      <c r="H21">
-        <v>0.339397203011457</v>
-      </c>
-      <c r="I21">
-        <v>0.1715150998377012</v>
-      </c>
-      <c r="J21">
-        <v>0.1715150998377012</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>25.9376137592956</v>
-      </c>
-      <c r="N21">
-        <v>25.9376137592956</v>
-      </c>
-      <c r="O21">
-        <v>0.4453526233484394</v>
-      </c>
-      <c r="P21">
-        <v>0.4453526233484394</v>
-      </c>
-      <c r="Q21">
-        <v>8.803153562696409</v>
-      </c>
-      <c r="R21">
-        <v>8.803153562696409</v>
-      </c>
-      <c r="S21">
-        <v>0.07638469965658974</v>
-      </c>
-      <c r="T21">
-        <v>0.07638469965658974</v>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.628561</v>
+      </c>
+      <c r="I29">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J29">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.071697333333334</v>
+      </c>
+      <c r="N29">
+        <v>3.215092</v>
+      </c>
+      <c r="O29">
+        <v>0.01767802143436429</v>
+      </c>
+      <c r="P29">
+        <v>0.0212420468649704</v>
+      </c>
+      <c r="Q29">
+        <v>0.581774826956889</v>
+      </c>
+      <c r="R29">
+        <v>5.235973442612</v>
+      </c>
+      <c r="S29">
+        <v>0.004033170683297342</v>
+      </c>
+      <c r="T29">
+        <v>0.005917008735859227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.628561</v>
+      </c>
+      <c r="I30">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J30">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>4.708586333333334</v>
+      </c>
+      <c r="N30">
+        <v>14.125759</v>
+      </c>
+      <c r="O30">
+        <v>0.07766977441972553</v>
+      </c>
+      <c r="P30">
+        <v>0.09332859982895587</v>
+      </c>
+      <c r="Q30">
+        <v>2.556073355866556</v>
+      </c>
+      <c r="R30">
+        <v>23.004660202799</v>
+      </c>
+      <c r="S30">
+        <v>0.01772005189217714</v>
+      </c>
+      <c r="T30">
+        <v>0.02599684220658137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.628561</v>
+      </c>
+      <c r="I31">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J31">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>26.1699</v>
+      </c>
+      <c r="N31">
+        <v>52.3398</v>
+      </c>
+      <c r="O31">
+        <v>0.4316816313205064</v>
+      </c>
+      <c r="P31">
+        <v>0.3458079845003432</v>
+      </c>
+      <c r="Q31">
+        <v>14.2064261713</v>
+      </c>
+      <c r="R31">
+        <v>85.23855702779998</v>
+      </c>
+      <c r="S31">
+        <v>0.09848645711988001</v>
+      </c>
+      <c r="T31">
+        <v>0.09632540960977937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.3770265</v>
+      </c>
+      <c r="H32">
+        <v>0.754053</v>
+      </c>
+      <c r="I32">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J32">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4.344454</v>
+      </c>
+      <c r="N32">
+        <v>8.688908</v>
+      </c>
+      <c r="O32">
+        <v>0.07166328453363975</v>
+      </c>
+      <c r="P32">
+        <v>0.05740743684517152</v>
+      </c>
+      <c r="Q32">
+        <v>1.637974286031</v>
+      </c>
+      <c r="R32">
+        <v>6.551897144123999</v>
+      </c>
+      <c r="S32">
+        <v>0.0113553037434957</v>
+      </c>
+      <c r="T32">
+        <v>0.007404092679830962</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.3770265</v>
+      </c>
+      <c r="H33">
+        <v>0.754053</v>
+      </c>
+      <c r="I33">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J33">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>24.18506433333333</v>
+      </c>
+      <c r="N33">
+        <v>72.555193</v>
+      </c>
+      <c r="O33">
+        <v>0.3989410744788757</v>
+      </c>
+      <c r="P33">
+        <v>0.4793706711978917</v>
+      </c>
+      <c r="Q33">
+        <v>9.1184101578715</v>
+      </c>
+      <c r="R33">
+        <v>54.710460947229</v>
+      </c>
+      <c r="S33">
+        <v>0.0632136400940105</v>
+      </c>
+      <c r="T33">
+        <v>0.06182656938881419</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.3770265</v>
+      </c>
+      <c r="H34">
+        <v>0.754053</v>
+      </c>
+      <c r="I34">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J34">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1434473333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.430342</v>
+      </c>
+      <c r="O34">
+        <v>0.002366213812888463</v>
+      </c>
+      <c r="P34">
+        <v>0.002843260762667162</v>
+      </c>
+      <c r="Q34">
+        <v>0.054083446021</v>
+      </c>
+      <c r="R34">
+        <v>0.324500676126</v>
+      </c>
+      <c r="S34">
+        <v>0.000374935041594289</v>
+      </c>
+      <c r="T34">
+        <v>0.0003667079973713401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.3770265</v>
+      </c>
+      <c r="H35">
+        <v>0.754053</v>
+      </c>
+      <c r="I35">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J35">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.071697333333334</v>
+      </c>
+      <c r="N35">
+        <v>3.215092</v>
+      </c>
+      <c r="O35">
+        <v>0.01767802143436429</v>
+      </c>
+      <c r="P35">
+        <v>0.0212420468649704</v>
+      </c>
+      <c r="Q35">
+        <v>0.4040582946460001</v>
+      </c>
+      <c r="R35">
+        <v>2.424349767876</v>
+      </c>
+      <c r="S35">
+        <v>0.002801145723051587</v>
+      </c>
+      <c r="T35">
+        <v>0.002739681343407375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.3770265</v>
+      </c>
+      <c r="H36">
+        <v>0.754053</v>
+      </c>
+      <c r="I36">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J36">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>4.708586333333334</v>
+      </c>
+      <c r="N36">
+        <v>14.125759</v>
+      </c>
+      <c r="O36">
+        <v>0.07766977441972553</v>
+      </c>
+      <c r="P36">
+        <v>0.09332859982895587</v>
+      </c>
+      <c r="Q36">
+        <v>1.7752618252045</v>
+      </c>
+      <c r="R36">
+        <v>10.651570951227</v>
+      </c>
+      <c r="S36">
+        <v>0.01230705354860995</v>
+      </c>
+      <c r="T36">
+        <v>0.01203700497334721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.3770265</v>
+      </c>
+      <c r="H37">
+        <v>0.754053</v>
+      </c>
+      <c r="I37">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J37">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>26.1699</v>
+      </c>
+      <c r="N37">
+        <v>52.3398</v>
+      </c>
+      <c r="O37">
+        <v>0.4316816313205064</v>
+      </c>
+      <c r="P37">
+        <v>0.3458079845003432</v>
+      </c>
+      <c r="Q37">
+        <v>9.86674580235</v>
+      </c>
+      <c r="R37">
+        <v>39.4669832094</v>
+      </c>
+      <c r="S37">
+        <v>0.06840149842463704</v>
+      </c>
+      <c r="T37">
+        <v>0.04460039512949344</v>
       </c>
     </row>
   </sheetData>
